--- a/resources/sample.xlsx
+++ b/resources/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyf01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F8C26-BF3D-44E4-A0BD-1BDA097F45B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E60BA-F4D4-40FE-8D4B-E86CF8A281AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30990" yWindow="2535" windowWidth="28800" windowHeight="15285" xr2:uid="{C4B6A225-46B0-4A10-BA59-E9A8A46C34AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>question</t>
   </si>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>hint</t>
-  </si>
-  <si>
-    <t>star(0~3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1이란 무엇인가?</t>
@@ -72,6 +68,13 @@
   </si>
   <si>
     <t>문장을 차근히 읽어봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookmark</t>
+  </si>
+  <si>
+    <t>star</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,9 +121,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,172 +445,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E1830E-BE83-486F-9AF9-37573FE95390}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="E11" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="0, 1, 공백만 입력 가능합니다." prompt="0: 북마크 없음_x000a_1: 북마크 사용" sqref="E2:E396" xr:uid="{F1459F02-6550-40EC-8218-80C278579869}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{8D7FEA1F-B6FC-41AB-B4EE-28AC2A721FA3}">
+      <formula1>"0,1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
